--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40206.08682431441</v>
+        <v>8001011.278038573</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40206.08682431441</v>
+        <v>8001011.278038573</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39959.3864242517</v>
+        <v>3757943.88772908</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39959.3864242517</v>
+        <v>3757943.88772908</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343744424.47186</v>
+        <v>54240493.92458462</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13119.35468393269</v>
+        <v>1440203.326564818</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24000.24596804954</v>
+        <v>2511380.336092279</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34881.13725216637</v>
+        <v>3582557.345619744</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46234.99078353636</v>
+        <v>4653024.931155467</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57588.84431490633</v>
+        <v>5723492.516691191</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68942.69784627631</v>
+        <v>6793960.102226911</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80297.26260196131</v>
+        <v>7864926.792243144</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91651.17736892853</v>
+        <v>8935764.134504538</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>103542.3392075217</v>
+        <v>9843760.601261282</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>115643.1947644411</v>
+        <v>10793490.68243953</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>127744.0503213605</v>
+        <v>11743220.76361778</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>139844.90587828</v>
+        <v>12692950.84479603</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>151945.7614351994</v>
+        <v>13642680.92597429</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>164046.6169921188</v>
+        <v>14592411.00715256</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>176146.1198881999</v>
+        <v>15541228.95615203</v>
       </c>
     </row>
   </sheetData>
